--- a/MBTestCases.xlsx
+++ b/MBTestCases.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Amendment" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Amedment-UAT" sheetId="3" r:id="rId2"/>
+    <sheet name="Summary" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="137">
   <si>
     <t>Project Name:-&gt; Mercedes_Benz</t>
   </si>
@@ -450,9 +451,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>Renault EW</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
@@ -475,6 +473,31 @@
   </si>
   <si>
     <t>Amendment</t>
+  </si>
+  <si>
+    <t>Vehicle Chessis No. :- SAKSHITIWARI12345</t>
+  </si>
+  <si>
+    <r>
+      <t>dealer should be to create new agreement and redirect to the next page of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MBCA1041</t>
+    </r>
+  </si>
+  <si>
+    <t>Module:-Amendment-UAT</t>
+  </si>
+  <si>
+    <t>Renault EW-UAT</t>
   </si>
 </sst>
 </file>
@@ -625,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -687,6 +710,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -703,6 +732,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,15 +1049,15 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1025,17 +1066,17 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1048,17 +1089,17 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="26">
         <v>44145</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1080,8 +1121,8 @@
       <c r="F4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1158,7 +1199,9 @@
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="M6" s="12" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -1187,7 +1230,9 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="M7" s="12" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -1216,7 +1261,9 @@
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="M8" s="12" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -1898,10 +1945,930 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="26">
+        <v>44146</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C6" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="33" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C7" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="33" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C8" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C9" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="33" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C10" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="33" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C11" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C12" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="33" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C13" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C14" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C15" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C16" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="33" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C17" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C18" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C19" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="33" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C20" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="33" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C21" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C22" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C23" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="33" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C24" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C25" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C26" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="33" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C27" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C28" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="31">
+        <v>12972</v>
+      </c>
+      <c r="C29" s="32">
+        <v>44146</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,48 +2881,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="A1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="A2" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="16">
         <v>24</v>

--- a/MBTestCases.xlsx
+++ b/MBTestCases.xlsx
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="Amendment" sheetId="1" r:id="rId1"/>
     <sheet name="Amedment-UAT" sheetId="3" r:id="rId2"/>
-    <sheet name="Summary" sheetId="2" r:id="rId3"/>
+    <sheet name="ApprovaLDateOf amendment" sheetId="4" r:id="rId3"/>
+    <sheet name="Summary" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="188">
   <si>
     <t>Project Name:-&gt; Mercedes_Benz</t>
   </si>
@@ -472,9 +473,6 @@
     <t>Lead Dev: Apurwa</t>
   </si>
   <si>
-    <t>Amendment</t>
-  </si>
-  <si>
     <t>Vehicle Chessis No. :- SAKSHITIWARI12345</t>
   </si>
   <si>
@@ -497,7 +495,190 @@
     <t>Module:-Amendment-UAT</t>
   </si>
   <si>
-    <t>Renault EW-UAT</t>
+    <t>1)https://mbuat.innov.co.in/index.php?module=Home&amp;view=DashBoard
+2)User name-demo-dealer
+3)PWD-Welcome@1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify if dealer is able to amend the agreement </t>
+  </si>
+  <si>
+    <t>dealer is on agreement page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)hit on amendment button </t>
+  </si>
+  <si>
+    <t>Amendment page should display with close and submit button</t>
+  </si>
+  <si>
+    <t>dealer is on amendment page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify amendment page </t>
+  </si>
+  <si>
+    <t>amendment page should have amendment and cancel Radio control button and Reason fileds with all the options as per the requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify if reason fields has all the options as per the requirement </t>
+  </si>
+  <si>
+    <t>observing the Amendment page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason fields should have with "Customer Information, Vehicle Information, Certified Assurrance Information, Pricing Information, Incorrect Document Uploaded and others" options </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify if dealer is able to select the Customer Info reason </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dealer is selecting Customer Inforamation </t>
+  </si>
+  <si>
+    <t>dealer selected the reason</t>
+  </si>
+  <si>
+    <t>Dealer should select the reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify if dealer is able to select the Vehicle Information, reason </t>
+  </si>
+  <si>
+    <t>Dealer is selecting Vehicle Information</t>
+  </si>
+  <si>
+    <t>To verify if dealer is able to select the Certified Assurrance Information reason</t>
+  </si>
+  <si>
+    <t>To verify if dealer is able to select the Pricing Information</t>
+  </si>
+  <si>
+    <t>Dealer is selecting Pricing Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dealer is selecting Certified Assurrance Inforamation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify if dealer is able to select the Incorrect Document Uploaded reason </t>
+  </si>
+  <si>
+    <t>Dealer is selecting Incorrect Document Uploaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify if dealer is able to select the Others  reason </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dealer is selecting Others </t>
+  </si>
+  <si>
+    <t>To verify if dealer is bale to amend his/her agreement with selecting reason</t>
+  </si>
+  <si>
+    <t>Odometer reading changes from 15000 to 16000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating the Odometer Reading
+and save </t>
+  </si>
+  <si>
+    <t>dealer should be able to do amendment with selected reason</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Update Region should be visible and status should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pending for amendment</t>
+    </r>
+  </si>
+  <si>
+    <t>To verify Agreement page of MBCA1076 and amendment details</t>
+  </si>
+  <si>
+    <t>Manager is logged into the system</t>
+  </si>
+  <si>
+    <t>1)https://mbuat.innov.co.in/index.php?module=Home&amp;view=DashBoard
+2)User name-demo-Assurant
+3)PWD-Welcome@123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify by approving the agreement MBCA1076 </t>
+  </si>
+  <si>
+    <t>Manger should approve the status and price type for the selected agreement number</t>
+  </si>
+  <si>
+    <t>1)Enter URL
+2)login with valid User name and pwd
+3)Click on agreement module and select MBCA1076 agreement number.</t>
+  </si>
+  <si>
+    <t>To verify the status of the MBCA1076 agreement number</t>
+  </si>
+  <si>
+    <t>Dealer is on agreement page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter URL
+2)login with valid User name and pwd
+3)Click on agreement module and select MBCA1076 agreement number.
+4)check the status </t>
+  </si>
+  <si>
+    <t>status for the agreement should approved by the manager</t>
+  </si>
+  <si>
+    <t>dealer logged into the system</t>
+  </si>
+  <si>
+    <t>Verify  if dealer is able to amend by selecting the agreement number which have been created 15 days back from todays date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selecting the agreement number MBCA1055 </t>
+  </si>
+  <si>
+    <t>amendment button is not visible for this agreement number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dealer should not be able to amend his/her agreement </t>
+  </si>
+  <si>
+    <t>Selecting the agreement number MBCA1069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selecting the agreement number MBCA1066 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selecting the agreement number MBCA1074 </t>
+  </si>
+  <si>
+    <t>Selecting the agreement number MBCA1055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter URL
+2)login with valid User name and pwd
+3)Click on agreement module and select MBCA1076 agreement number.
+4)click on amendment button
+</t>
+  </si>
+  <si>
+    <t>MB-UAT</t>
+  </si>
+  <si>
+    <t>Amendment_UAT</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -508,7 +689,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +751,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -621,7 +808,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -644,11 +831,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -716,6 +940,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -733,17 +975,39 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,15 +1313,15 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1066,17 +1330,17 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1089,17 +1353,17 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="32">
         <v>44145</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1121,8 +1385,8 @@
       <c r="F4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1947,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,15 +2233,15 @@
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
@@ -1986,17 +2250,17 @@
       <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="22" t="s">
         <v>3</v>
       </c>
@@ -2009,17 +2273,17 @@
       <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="32">
         <v>44146</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="22" t="s">
         <v>6</v>
       </c>
@@ -2039,10 +2303,10 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+        <v>134</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="22"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
@@ -2091,13 +2355,13 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="26">
         <v>12972</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="27">
         <v>44146</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -2123,14 +2387,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="33" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:13" s="28" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="26">
         <v>12972</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="27">
         <v>44146</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -2148,20 +2412,20 @@
       <c r="J7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="33" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="28" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="26">
         <v>12972</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="27">
         <v>44146</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -2179,9 +2443,9 @@
       <c r="J8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31" t="s">
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2189,10 +2453,10 @@
       <c r="A9" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="26">
         <v>12972</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="27">
         <v>44146</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -2216,14 +2480,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="33" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:13" s="28" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="26">
         <v>12972</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="27">
         <v>44146</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -2239,20 +2503,20 @@
       <c r="J10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="33" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="28" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="26">
         <v>12972</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="27">
         <v>44146</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -2272,9 +2536,9 @@
       <c r="J11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31" t="s">
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2282,10 +2546,10 @@
       <c r="A12" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="26">
         <v>12972</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="27">
         <v>44146</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -2309,14 +2573,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="33" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:13" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="26">
         <v>12972</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="27">
         <v>44146</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -2334,9 +2598,9 @@
       <c r="J13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31" t="s">
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2344,10 +2608,10 @@
       <c r="A14" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="26">
         <v>12972</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="27">
         <v>44146</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -2375,10 +2639,10 @@
       <c r="A15" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="26">
         <v>12972</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="27">
         <v>44146</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -2406,10 +2670,10 @@
       <c r="A16" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="26">
         <v>12972</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="27">
         <v>44146</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -2433,14 +2697,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="33" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:13" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="26">
         <v>12972</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="27">
         <v>44146</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -2458,9 +2722,9 @@
       <c r="J17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31" t="s">
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2468,10 +2732,10 @@
       <c r="A18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="26">
         <v>12972</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="27">
         <v>44146</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -2495,14 +2759,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:13" s="28" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="26">
         <v>12972</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="27">
         <v>44146</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -2520,20 +2784,20 @@
       <c r="J19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="33" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="26">
         <v>12972</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="27">
         <v>44146</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2545,26 +2809,26 @@
       <c r="F20" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="33" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="28" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="26">
         <v>12972</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="27">
         <v>44146</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -2582,24 +2846,24 @@
       <c r="H21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="26"/>
       <c r="J21" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="28" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="26">
         <v>12972</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="27">
         <v>44146</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -2619,20 +2883,20 @@
       <c r="J22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="28" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="26">
         <v>12972</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="27">
         <v>44146</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2645,7 +2909,7 @@
         <v>76</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="10" t="s">
@@ -2654,20 +2918,20 @@
       <c r="J23" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="33" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="28" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="26">
         <v>12972</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="27">
         <v>44146</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -2687,20 +2951,20 @@
       <c r="J24" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="28" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="26">
         <v>12972</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="27">
         <v>44146</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -2720,20 +2984,20 @@
       <c r="J25" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="26">
         <v>12972</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="27">
         <v>44146</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -2751,22 +3015,22 @@
         <v>74</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="33" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="28" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="26">
         <v>12972</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="27">
         <v>44146</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -2781,25 +3045,25 @@
       <c r="G27" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="26">
         <v>12972</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="27">
         <v>44146</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -2808,27 +3072,27 @@
       <c r="E28" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
       <c r="J28" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="26">
         <v>12972</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="27">
         <v>44146</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -2837,27 +3101,27 @@
       <c r="E29" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31" t="s">
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2865,40 +3129,1051 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="32">
+        <v>44152</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="36" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="45">
+        <v>13011</v>
+      </c>
+      <c r="C6" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C7" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" s="36" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C8" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" s="36" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C9" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C10" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C11" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C12" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C13" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C14" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C15" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C16" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C17" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C18" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" s="36" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C19" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" s="36" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C20" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" s="36" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C21" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C22" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C23" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C24" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="44">
+        <v>13011</v>
+      </c>
+      <c r="C25" s="38">
+        <v>44152</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -2922,21 +4197,41 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="B4" s="16">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C4" s="16">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" s="17">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4" s="18">
         <v>0</v>
       </c>
       <c r="F4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="40">
+        <v>19</v>
+      </c>
+      <c r="C5" s="40">
+        <v>19</v>
+      </c>
+      <c r="D5" s="42">
+        <v>19</v>
+      </c>
+      <c r="E5" s="43">
+        <v>0</v>
+      </c>
+      <c r="F5" s="40">
         <v>0</v>
       </c>
     </row>
